--- a/Shitalakshya/Python/data/CF.xlsx
+++ b/Shitalakshya/Python/data/CF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>CrW</t>
   </si>
@@ -67,7 +67,10 @@
     <t>CD_Rainy</t>
   </si>
   <si>
-    <t>PLI</t>
+    <t>PLI_W</t>
+  </si>
+  <si>
+    <t>PLI_R</t>
   </si>
   <si>
     <t>S1</t>
@@ -542,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +606,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -645,13 +651,13 @@
         <v>2.5365</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>24.00701885369532</v>
@@ -662,8 +668,11 @@
       <c r="S2">
         <v>1.925769749286074</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>1.237190000404124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,13 +713,13 @@
         <v>1.945</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>21.82763197586727</v>
@@ -721,8 +730,11 @@
       <c r="S3">
         <v>1.919699198136955</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>1.223823688316784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,13 +775,13 @@
         <v>1.6395</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>19.16502136752137</v>
@@ -780,8 +792,11 @@
       <c r="S4">
         <v>2.173153184229437</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>1.354063298798929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -822,13 +837,13 @@
         <v>2.17</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>17.91075490196079</v>
@@ -839,8 +854,11 @@
       <c r="S5">
         <v>2.083758044306093</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>1.378524556725047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -881,13 +899,13 @@
         <v>2.6775</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>17.22249069884364</v>
@@ -898,8 +916,11 @@
       <c r="S6">
         <v>2.194184227798313</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>1.490205439148591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -940,13 +961,13 @@
         <v>1.894</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>14.76813775766717</v>
@@ -957,8 +978,11 @@
       <c r="S7">
         <v>1.697398859204537</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>1.007744661493372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -999,13 +1023,13 @@
         <v>1.6735</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>12.19741151332328</v>
@@ -1016,8 +1040,11 @@
       <c r="S8">
         <v>1.559984795726199</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>1.201855929675299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1058,13 +1085,13 @@
         <v>4.904999999999999</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>28.56034741075917</v>
@@ -1075,8 +1102,11 @@
       <c r="S9">
         <v>2.050807253520881</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>1.321321221365275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1117,13 +1147,13 @@
         <v>8.52</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>34.52490623428859</v>
@@ -1134,8 +1164,11 @@
       <c r="S10">
         <v>2.25521502920921</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>1.542792434695284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1176,13 +1209,13 @@
         <v>5.43</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>25.27492885872298</v>
@@ -1193,8 +1226,11 @@
       <c r="S11">
         <v>1.886035414169595</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>1.497284836650657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,13 +1271,13 @@
         <v>7.77</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>43.63865585721469</v>
@@ -1252,8 +1288,11 @@
       <c r="S12">
         <v>3.303788108225354</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>2.436037216250039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,13 +1333,13 @@
         <v>8.895</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>54.20014203117144</v>
@@ -1311,8 +1350,11 @@
       <c r="S13">
         <v>3.769634947957367</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>2.687184749066994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1353,13 +1395,13 @@
         <v>1.799</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q14">
         <v>13.92082378079437</v>
@@ -1370,8 +1412,11 @@
       <c r="S14">
         <v>1.17385139292193</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>0.8515222423132827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1412,13 +1457,13 @@
         <v>1.574</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15">
         <v>11.03682704876823</v>
@@ -1429,8 +1474,11 @@
       <c r="S15">
         <v>0.993461057899264</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0.7111553490863827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1471,13 +1519,13 @@
         <v>3.826</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>40.44117119155354</v>
@@ -1488,8 +1536,11 @@
       <c r="S16">
         <v>2.420262238306666</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>1.764399709919715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1530,13 +1581,13 @@
         <v>4.9235</v>
       </c>
       <c r="N17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q17">
         <v>65.11595977878331</v>
@@ -1547,8 +1598,11 @@
       <c r="S17">
         <v>3.320729530412663</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>2.169580257602395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1589,13 +1643,13 @@
         <v>4.772</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q18">
         <v>59.97828205128205</v>
@@ -1605,6 +1659,9 @@
       </c>
       <c r="S18">
         <v>3.512025462207722</v>
+      </c>
+      <c r="T18">
+        <v>2.271582607837283</v>
       </c>
     </row>
   </sheetData>
